--- a/Particulares/Joao2/CaracterísticasAbrasil-2.xlsx
+++ b/Particulares/Joao2/CaracterísticasAbrasil-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LCP" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="LCP baseline. div. cate. rastre" sheetId="3" r:id="rId3"/>
     <sheet name="Plan1" sheetId="4" r:id="rId4"/>
     <sheet name="Plan4" sheetId="5" r:id="rId5"/>
+    <sheet name="Reuqusitos joao " sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'LCP base line '!$C$2:$E$50</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="236">
   <si>
     <t>Workshop de Características - Abrasil Express</t>
   </si>
@@ -620,6 +621,117 @@
   </si>
   <si>
     <t>Base line 1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Requisitos de negocio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requisitos de sistema </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caso de uso </t>
+  </si>
+  <si>
+    <t>Componentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de requisito </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tirar do base line </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requisito Funcional </t>
+  </si>
+  <si>
+    <t>Mostrar vencimentos do dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar proximos vencimentos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balanço Patrimonial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerenciar Contas </t>
+  </si>
+  <si>
+    <t>Impressão de Recibos (OS)</t>
+  </si>
+  <si>
+    <t>Ver os resultados das contas no periodo</t>
+  </si>
+  <si>
+    <t>Ver situação do Balanço das contas da empresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caso de Teste </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserir Nova Conta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Só aceitar cadastro com data vencimento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Só aceitar cadastro com Valor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar Vencimentos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar Devedores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazer DRE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazer Balanço Patrimonial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserir sem data vencimento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserir sem Valor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserir sem Divisão </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastro de Receitas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deixar Conta vencida sem pagamento e ver se mostra no local certo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deixar conta vencida no dia e ver se mostra  no local certo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deixar conta vencida na semana  e ver se mostra  no local certo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver se despesas do mês bate com do DRE </t>
+  </si>
+  <si>
+    <t>Ver se receitas do mês bate com receita do DRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver se impostos do mês bate com DRE </t>
+  </si>
+  <si>
+    <t>Ver se contas a pagar bate com Balanço</t>
+  </si>
+  <si>
+    <t>Ver se contas a receber  bate com Balanço</t>
+  </si>
+  <si>
+    <t>Ver se Caixa  bate com Balanço</t>
+  </si>
+  <si>
+    <t>Ver se Banco  bate com Balanço</t>
   </si>
 </sst>
 </file>
@@ -743,7 +855,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,6 +901,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,7 +1073,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1003,15 +1151,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,6 +1167,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1048,6 +1196,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1055,6 +1234,69 @@
     <cellStyle name="Título 1" xfId="2" builtinId="16"/>
   </cellStyles>
   <dxfs count="78">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1324,48 +1566,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -1430,27 +1630,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1913,13 +2092,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1936,37 +2115,37 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="5" t="s">
         <v>84</v>
       </c>
@@ -1981,7 +2160,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2001,7 +2180,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,7 +2198,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -2037,7 +2216,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -2055,7 +2234,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -2073,7 +2252,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -2091,7 +2270,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
@@ -2109,7 +2288,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
@@ -2127,7 +2306,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
@@ -2145,7 +2324,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
@@ -2163,7 +2342,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
@@ -2181,7 +2360,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="3" t="s">
         <v>83</v>
       </c>
@@ -2199,7 +2378,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="39" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="3"/>
@@ -2208,7 +2387,7 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
@@ -2226,7 +2405,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
@@ -2244,7 +2423,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="3" t="s">
         <v>94</v>
       </c>
@@ -2262,7 +2441,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="3"/>
@@ -2271,7 +2450,7 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
@@ -2289,7 +2468,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
@@ -2307,7 +2486,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
@@ -2325,7 +2504,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="3"/>
@@ -2334,7 +2513,7 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
@@ -2352,7 +2531,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
@@ -2370,7 +2549,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
@@ -2388,7 +2567,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="3" t="s">
         <v>27</v>
       </c>
@@ -2406,7 +2585,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="3" t="s">
         <v>28</v>
       </c>
@@ -2424,7 +2603,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="3" t="s">
         <v>30</v>
       </c>
@@ -2442,7 +2621,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
@@ -2460,7 +2639,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="3" t="s">
         <v>31</v>
       </c>
@@ -2478,7 +2657,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="3"/>
@@ -2487,7 +2666,7 @@
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="3" t="s">
         <v>33</v>
       </c>
@@ -2505,7 +2684,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="3" t="s">
         <v>49</v>
       </c>
@@ -2523,7 +2702,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="3" t="s">
         <v>50</v>
       </c>
@@ -2541,7 +2720,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="3" t="s">
         <v>51</v>
       </c>
@@ -2559,7 +2738,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="3" t="s">
         <v>52</v>
       </c>
@@ -2577,7 +2756,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="3" t="s">
         <v>34</v>
       </c>
@@ -2595,7 +2774,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="3" t="s">
         <v>35</v>
       </c>
@@ -2613,7 +2792,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="3" t="s">
         <v>36</v>
       </c>
@@ -2631,7 +2810,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="3" t="s">
         <v>37</v>
       </c>
@@ -2649,7 +2828,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="3" t="s">
         <v>55</v>
       </c>
@@ -2667,7 +2846,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="3" t="s">
         <v>38</v>
       </c>
@@ -2685,7 +2864,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="3" t="s">
         <v>39</v>
       </c>
@@ -2703,7 +2882,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="3" t="s">
         <v>40</v>
       </c>
@@ -2721,7 +2900,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="3" t="s">
         <v>86</v>
       </c>
@@ -2739,7 +2918,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="3" t="s">
         <v>41</v>
       </c>
@@ -2757,7 +2936,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="3" t="s">
         <v>42</v>
       </c>
@@ -2775,7 +2954,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="3" t="s">
         <v>43</v>
       </c>
@@ -2793,7 +2972,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
+      <c r="A55" s="40"/>
       <c r="B55" s="3" t="s">
         <v>44</v>
       </c>
@@ -2811,7 +2990,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
+      <c r="A56" s="40"/>
       <c r="B56" s="3" t="s">
         <v>45</v>
       </c>
@@ -2829,7 +3008,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="3" t="s">
         <v>46</v>
       </c>
@@ -2847,7 +3026,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
+      <c r="A58" s="40"/>
       <c r="B58" s="3" t="s">
         <v>47</v>
       </c>
@@ -2865,7 +3044,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
+      <c r="A59" s="40"/>
       <c r="B59" s="3" t="s">
         <v>48</v>
       </c>
@@ -2883,7 +3062,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
+      <c r="A60" s="40"/>
       <c r="B60" s="3" t="s">
         <v>53</v>
       </c>
@@ -2901,7 +3080,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="3" t="s">
         <v>54</v>
       </c>
@@ -2919,7 +3098,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B62" s="3"/>
@@ -2928,7 +3107,7 @@
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
+      <c r="A63" s="40"/>
       <c r="B63" s="3" t="s">
         <v>64</v>
       </c>
@@ -2946,7 +3125,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
+      <c r="A64" s="40"/>
       <c r="B64" s="3" t="s">
         <v>57</v>
       </c>
@@ -2964,7 +3143,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
+      <c r="A65" s="40"/>
       <c r="B65" s="3" t="s">
         <v>58</v>
       </c>
@@ -2982,7 +3161,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
+      <c r="A66" s="40"/>
       <c r="B66" s="3" t="s">
         <v>87</v>
       </c>
@@ -3000,7 +3179,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
+      <c r="A67" s="40"/>
       <c r="B67" s="3" t="s">
         <v>59</v>
       </c>
@@ -3018,7 +3197,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="34"/>
+      <c r="A68" s="40"/>
       <c r="B68" s="3" t="s">
         <v>60</v>
       </c>
@@ -3036,7 +3215,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
+      <c r="A69" s="40"/>
       <c r="B69" s="3" t="s">
         <v>88</v>
       </c>
@@ -3054,7 +3233,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
+      <c r="A70" s="40"/>
       <c r="B70" s="3" t="s">
         <v>89</v>
       </c>
@@ -3072,7 +3251,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="34"/>
+      <c r="A71" s="40"/>
       <c r="B71" s="3" t="s">
         <v>61</v>
       </c>
@@ -3090,7 +3269,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
+      <c r="A72" s="40"/>
       <c r="B72" s="3" t="s">
         <v>62</v>
       </c>
@@ -3108,7 +3287,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
+      <c r="A73" s="40"/>
       <c r="B73" s="3" t="s">
         <v>63</v>
       </c>
@@ -3126,7 +3305,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
+      <c r="A74" s="40"/>
       <c r="B74" s="3" t="s">
         <v>90</v>
       </c>
@@ -3144,7 +3323,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
+      <c r="A75" s="40"/>
       <c r="B75" s="3" t="s">
         <v>65</v>
       </c>
@@ -3162,7 +3341,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
+      <c r="A76" s="40"/>
       <c r="B76" s="3" t="s">
         <v>66</v>
       </c>
@@ -3180,7 +3359,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="35"/>
+      <c r="A77" s="41"/>
       <c r="B77" s="3" t="s">
         <v>95</v>
       </c>
@@ -3198,7 +3377,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="39" t="s">
         <v>67</v>
       </c>
       <c r="B78" s="3"/>
@@ -3207,7 +3386,7 @@
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
+      <c r="A79" s="40"/>
       <c r="B79" s="3" t="s">
         <v>68</v>
       </c>
@@ -3225,7 +3404,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
+      <c r="A80" s="40"/>
       <c r="B80" s="3" t="s">
         <v>69</v>
       </c>
@@ -3243,7 +3422,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
+      <c r="A81" s="40"/>
       <c r="B81" s="3" t="s">
         <v>70</v>
       </c>
@@ -3261,7 +3440,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
+      <c r="A82" s="40"/>
       <c r="B82" s="3" t="s">
         <v>91</v>
       </c>
@@ -3279,7 +3458,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
+      <c r="A83" s="40"/>
       <c r="B83" s="3" t="s">
         <v>71</v>
       </c>
@@ -3297,7 +3476,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
+      <c r="A84" s="40"/>
       <c r="B84" s="3" t="s">
         <v>72</v>
       </c>
@@ -3315,7 +3494,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="35"/>
+      <c r="A85" s="41"/>
       <c r="B85" s="3" t="s">
         <v>73</v>
       </c>
@@ -3333,7 +3512,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="39" t="s">
         <v>74</v>
       </c>
       <c r="B86" s="3"/>
@@ -3342,7 +3521,7 @@
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="34"/>
+      <c r="A87" s="40"/>
       <c r="B87" s="3" t="s">
         <v>75</v>
       </c>
@@ -3360,7 +3539,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="34"/>
+      <c r="A88" s="40"/>
       <c r="B88" s="3" t="s">
         <v>76</v>
       </c>
@@ -3378,7 +3557,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
+      <c r="A89" s="40"/>
       <c r="B89" s="3" t="s">
         <v>77</v>
       </c>
@@ -3396,7 +3575,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
+      <c r="A90" s="41"/>
       <c r="B90" s="3" t="s">
         <v>78</v>
       </c>
@@ -3415,11 +3594,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A37:A61"/>
     <mergeCell ref="A62:A77"/>
     <mergeCell ref="A78:A85"/>
@@ -3428,6 +3602,11 @@
     <mergeCell ref="A28:A36"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="containsText" dxfId="77" priority="10" operator="containsText" text="Importante">
@@ -4300,8 +4479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4310,6 +4489,7 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="13.42578125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4596,7 +4776,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="29" t="s">
         <v>130</v>
@@ -4614,7 +4794,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>102</v>
       </c>
@@ -4634,8 +4814,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
         <v>107</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -4653,8 +4833,11 @@
       <c r="F19" s="14" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="29" t="s">
         <v>132</v>
@@ -4672,7 +4855,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="29" t="s">
         <v>133</v>
@@ -4690,7 +4873,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
       <c r="B22" s="29" t="s">
         <v>134</v>
@@ -4708,7 +4891,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
       <c r="B23" s="29" t="s">
         <v>135</v>
@@ -4726,7 +4909,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
       <c r="B24" s="29" t="s">
         <v>136</v>
@@ -4744,7 +4927,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
       <c r="B25" s="29" t="s">
         <v>137</v>
@@ -4762,7 +4945,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="47"/>
       <c r="B26" s="29" t="s">
         <v>138</v>
@@ -4780,7 +4963,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
       <c r="B27" s="29" t="s">
         <v>139</v>
@@ -4798,7 +4981,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
       <c r="B28" s="29" t="s">
         <v>140</v>
@@ -4816,7 +4999,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="47"/>
       <c r="B29" s="29" t="s">
         <v>141</v>
@@ -4834,7 +5017,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
       <c r="B30" s="29" t="s">
         <v>142</v>
@@ -4852,7 +5035,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="47"/>
       <c r="B31" s="29" t="s">
         <v>143</v>
@@ -4870,7 +5053,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="47"/>
       <c r="B32" s="29" t="s">
         <v>144</v>
@@ -4911,8 +5094,8 @@
       <c r="B34" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="27" t="s">
-        <v>22</v>
+      <c r="C34" s="48" t="s">
+        <v>211</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>10</v>
@@ -5064,7 +5247,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="39" t="s">
         <v>105</v>
       </c>
       <c r="B43" s="29" t="s">
@@ -5084,7 +5267,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="29" t="s">
         <v>154</v>
       </c>
@@ -5102,7 +5285,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="29" t="s">
         <v>155</v>
       </c>
@@ -5120,7 +5303,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="29" t="s">
         <v>156</v>
       </c>
@@ -5138,7 +5321,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="29" t="s">
         <v>194</v>
       </c>
@@ -5156,7 +5339,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="44" t="s">
         <v>198</v>
       </c>
@@ -5186,7 +5369,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="41" t="s">
         <v>106</v>
       </c>
       <c r="B50" s="29" t="s">
@@ -5488,7 +5671,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="41" t="s">
         <v>108</v>
       </c>
       <c r="B67" s="29" t="s">
@@ -5786,14 +5969,14 @@
     <mergeCell ref="A2:A17"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D17 D36:D41 D50:D58 D60:D65 D76:D1048576 D19:D34 D43:D47 D67:D74">
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="Crítico">
-      <formula>NOT(ISERROR(SEARCH("Crítico",D1)))</formula>
+    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="Útil">
+      <formula>NOT(ISERROR(SEARCH("Útil",D1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="Útil">
-      <formula>NOT(ISERROR(SEARCH("Útil",D1)))</formula>
+    <cfRule type="containsText" dxfId="54" priority="57" operator="containsText" text="Crítico">
+      <formula>NOT(ISERROR(SEARCH("Crítico",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
@@ -5841,25 +6024,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E17 E19:E41 E43:E48 E50:E65 E67:E1048576">
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Fácil">
-      <formula>NOT(ISERROR(SEARCH("Fácil",E1)))</formula>
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Difícil">
+      <formula>NOT(ISERROR(SEARCH("Difícil",E1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Médio">
       <formula>NOT(ISERROR(SEARCH("Médio",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="Difícil">
-      <formula>NOT(ISERROR(SEARCH("Difícil",E1)))</formula>
+    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Fácil">
+      <formula>NOT(ISERROR(SEARCH("Fácil",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F17 F19:F41 F43:F48 F50:F65 F67:F1048576">
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="Alto">
-      <formula>NOT(ISERROR(SEARCH("Alto",F1)))</formula>
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Baixo">
+      <formula>NOT(ISERROR(SEARCH("Baixo",F1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Médio">
       <formula>NOT(ISERROR(SEARCH("Médio",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="Baixo">
-      <formula>NOT(ISERROR(SEARCH("Baixo",F1)))</formula>
+    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Alto">
+      <formula>NOT(ISERROR(SEARCH("Alto",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
@@ -7275,4 +7458,748 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="26" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="60"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="53"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="53"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="53"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="53"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="53"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="53"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="53"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="53"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="53"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="53"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="53"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="53"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="53"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="53"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="53"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="53"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="53"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="53"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="53"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="53"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="53"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="53"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="53"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="53"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="53"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="53"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="53"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="53"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="53"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="53"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="53"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="53"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>